--- a/data/crm.xlsx
+++ b/data/crm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>account_id</t>
   </si>
@@ -25,70 +25,10 @@
     <t>domain</t>
   </si>
   <si>
-    <t>industry</t>
-  </si>
-  <si>
-    <t>arr_band</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
     <t>Acme Corp</t>
   </si>
   <si>
-    <t>Globex Inc</t>
-  </si>
-  <si>
-    <t>Initech</t>
-  </si>
-  <si>
     <t>acme.com</t>
-  </si>
-  <si>
-    <t>globex.com</t>
-  </si>
-  <si>
-    <t>initech.com</t>
-  </si>
-  <si>
-    <t>Manufacturing</t>
-  </si>
-  <si>
-    <t>Logistics</t>
-  </si>
-  <si>
-    <t>Software</t>
-  </si>
-  <si>
-    <t>100k-250k</t>
-  </si>
-  <si>
-    <t>250k-500k</t>
-  </si>
-  <si>
-    <t>25k-50k</t>
-  </si>
-  <si>
-    <t>Jane Smith</t>
-  </si>
-  <si>
-    <t>Michael Adams</t>
-  </si>
-  <si>
-    <t>Samir Nagheenanajar</t>
-  </si>
-  <si>
-    <t>Strategic</t>
-  </si>
-  <si>
-    <t>Expansion</t>
-  </si>
-  <si>
-    <t>New pilot</t>
   </si>
 </sst>
 </file>
@@ -446,13 +386,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,86 +402,16 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>1001</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>1002</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>1003</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
